--- a/output/sales_salessystem/target_sales_salessystem.xlsx
+++ b/output/sales_salessystem/target_sales_salessystem.xlsx
@@ -773,7 +773,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>bk_customer</t>
+          <t>bk_customerid</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>bk_dealership</t>
+          <t>bk_dealershipid</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>bk_salesperson</t>
+          <t>bk_salespersonid</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
